--- a/data/trans_camb/P23_DUKE_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,88</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>70,31</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,77</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>65,4</t>
+          <t>-10,19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-11,08</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-7,39</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-8,34</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 3,29</t>
+          <t>-13,49; 5,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -2,1</t>
+          <t>-22,92; -1,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,33; 79,17</t>
+          <t>-10,26; 9,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 8,8</t>
+          <t>-8,78; 13,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 6,33</t>
+          <t>-15,47; 3,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,21; 68,7</t>
+          <t>-12,34; 7,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 3,46</t>
+          <t>-13,35; 7,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,74</t>
+          <t>-3,87; 15,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,05; 72,48</t>
+          <t>-20,27; 0,87</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; -0,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; 3,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 0,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 9,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 4,32</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; -1,33</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,2%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-68,71%</t>
+          <t>-14,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>544,24%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>-6,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>536,27%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,54%</t>
+          <t>-3,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-36,81%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>542,32%</t>
+          <t>-12,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-13,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,22%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-4,1%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,3; 40,53</t>
+          <t>-15,55; 7,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-91,46; -3,44</t>
+          <t>-26,39; -2,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>304,18; 994,13</t>
+          <t>-11,51; 12,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 125,35</t>
+          <t>-10,09; 17,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,66; 96,69</t>
+          <t>-16,68; 3,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>292,86; 1031,88</t>
+          <t>-15,21; 10,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 39,24</t>
+          <t>-15,93; 10,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,65; 11,91</t>
+          <t>-4,66; 22,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>365,89; 836,02</t>
+          <t>-23,6; 1,03</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-23,93; -0,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 4,76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 0,65</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 13,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 5,29</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-17,26; -1,83</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,96</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,53</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,37</t>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 3,74</t>
+          <t>-5,93; 15,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 21,56</t>
+          <t>-7,57; 15,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,5; 77,51</t>
+          <t>-5,05; 19,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 2,02</t>
+          <t>-14,48; 7,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 4,22</t>
+          <t>-14,54; 11,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,4; 73,37</t>
+          <t>-5,98; 7,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 0,67</t>
+          <t>-9,4; 4,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 11,13</t>
+          <t>-12,45; 3,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,54; 73,13</t>
+          <t>-7,77; 10,05</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; 4,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 9,67</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 7,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 8,08</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 5,4</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 5,62</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-34,58%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>584,81%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,97%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,49%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>411,44%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-32,18%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>-5,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>490,74%</t>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-3,3%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-3,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,14; 70,95</t>
+          <t>-6,82; 21,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,21; 286,49</t>
+          <t>-8,61; 21,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>233,13; 1259,54</t>
+          <t>-5,85; 27,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 17,57</t>
+          <t>-16,25; 9,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,9; 38,44</t>
+          <t>-16,16; 14,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>259,86; 705,1</t>
+          <t>-6,52; 9,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,63; 8,79</t>
+          <t>-10,25; 4,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 104,37</t>
+          <t>-13,73; 4,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>288,89; 734,41</t>
+          <t>-8,85; 12,73</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 5,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 12,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 10,07</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 10,23</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-10,71; 6,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 6,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>62,26</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>72,58</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>67,38</t>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,93</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 5,57</t>
+          <t>-1,23; 15,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 8,63</t>
+          <t>-0,07; 16,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>49,54; 71,28</t>
+          <t>-11,17; 9,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 1,25</t>
+          <t>-0,95; 15,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,45</t>
+          <t>-2,65; 10,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,86; 78,2</t>
+          <t>-1,9; 9,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 1,64</t>
+          <t>-2,08; 8,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 5,71</t>
+          <t>-5,12; 5,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,22; 72,58</t>
+          <t>-4,95; 6,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; -2,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 10,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 10,13</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 5,7</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 8,57</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 4,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,62%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,14%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>295,13%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,53%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>448,58%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-21,86%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>363,12%</t>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-7,31%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,24; 36,82</t>
+          <t>-1,36; 19,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 56,67</t>
+          <t>-0,02; 21,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>143,47; 483,21</t>
+          <t>-12,39; 12,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 10,14</t>
+          <t>-0,94; 20,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 56,71</t>
+          <t>-2,87; 13,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>318,29; 656,43</t>
+          <t>-2,15; 11,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 10,76</t>
+          <t>-2,35; 10,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 35,29</t>
+          <t>-5,76; 7,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>235,02; 482,91</t>
+          <t>-5,61; 7,73</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-13,4; -2,53</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 12,32</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 12,49</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 7,08</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 10,59</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 4,65</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>76,47</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>69,48</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>72,91</t>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,54</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,33</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,79</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 15,3</t>
+          <t>-3,07; 10,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 13,93</t>
+          <t>-6,14; 6,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,02; 81,97</t>
+          <t>1,65; 14,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 9,85</t>
+          <t>-5,99; 4,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 15,09</t>
+          <t>-8,8; 1,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,03; 75,4</t>
+          <t>-0,28; 9,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 10,39</t>
+          <t>0,77; 10,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 12,43</t>
+          <t>-0,73; 9,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>67,88; 77,29</t>
+          <t>-6,89; 3,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 1,16</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 8,58</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 6,8</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 10,22</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 3,09</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 0,33</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>462,1%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>-3,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>340,17%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>391,83%</t>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 116,71</t>
+          <t>-3,45; 13,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 109,65</t>
+          <t>-7,1; 8,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>290,26; 662,57</t>
+          <t>1,86; 17,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 61,84</t>
+          <t>-6,42; 5,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,25; 92,3</t>
+          <t>-9,29; 1,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>251,5; 471,52</t>
+          <t>-0,29; 11,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 63,66</t>
+          <t>0,82; 12,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,57; 79,05</t>
+          <t>-0,79; 11,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>296,84; 500,57</t>
+          <t>-7,38; 3,99</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 1,25</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 10,36</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 8,28</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 12,32</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 3,4</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 0,34</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>73,48</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>59,03</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>65,74</t>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 10,47</t>
+          <t>-5,09; 11,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 10,75</t>
+          <t>0,94; 16,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>63,57; 80,04</t>
+          <t>2,2; 18,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 2,79</t>
+          <t>-8,22; 7,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 7,48</t>
+          <t>-8,5; 5,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,84; 66,96</t>
+          <t>-5,59; 8,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 4,06</t>
+          <t>-6,25; 8,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 6,82</t>
+          <t>-1,84; 12,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>59,33; 70,8</t>
+          <t>-7,19; 5,27</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 9,47</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 7,47</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 9,88</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 12,93</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 4,33</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 5,56</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>527,21%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-22,07%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>246,22%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>340,41%</t>
+          <t>-0,89%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 102,17</t>
+          <t>-5,91; 15,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 110,08</t>
+          <t>1,14; 22,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>322,5; 838,19</t>
+          <t>2,85; 25,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 15,89</t>
+          <t>-8,91; 8,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 36,34</t>
+          <t>-9,19; 6,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>165,65; 361,46</t>
+          <t>-6,2; 11,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 26,24</t>
+          <t>-7,07; 10,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 43,09</t>
+          <t>-2,05; 15,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>253,32; 456,03</t>
+          <t>-7,67; 6,07</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 11,3</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 9,4</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 12,43</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 16,39</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 4,93</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 6,54</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>64,48</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>60,33</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>62,01</t>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4,31</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>11,27</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 14,44</t>
+          <t>-5,78; 15,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 8,08</t>
+          <t>-7,59; 15,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>51,24; 75,04</t>
+          <t>2,88; 22,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 1,66</t>
+          <t>-6,53; 9,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 22,46</t>
+          <t>-0,97; 15,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>49,01; 71,04</t>
+          <t>-4,39; 14,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 3,95</t>
+          <t>-4,88; 13,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 14,6</t>
+          <t>-1,23; 19,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>53,61; 69,77</t>
+          <t>-12,9; 8,66</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 9,23</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 13,08</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 10,83</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 17,85</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 6,07</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 10,07</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>352,89%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-34,21%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>303,82%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-15,69%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>322,73%</t>
+          <t>-3,13%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-2,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-1,35%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 119,91</t>
+          <t>-6,79; 22,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,69; 70,08</t>
+          <t>-9,24; 21,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>178,13; 667,97</t>
+          <t>3,49; 31,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 11,84</t>
+          <t>-6,89; 11,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 158,15</t>
+          <t>-1,17; 20,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>183,96; 506,81</t>
+          <t>-5,64; 20,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 27,7</t>
+          <t>-6,18; 19,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 91,11</t>
+          <t>-1,41; 28,54</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>226,24; 475,36</t>
+          <t>-14,5; 10,85</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; 11,82</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 17,63</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 15,0</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 24,62</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 7,37</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 12,79</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>69,12</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>64,85</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>66,94</t>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,83</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 3,63</t>
+          <t>-0,8; 7,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,51</t>
+          <t>-2,27; 6,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>63,94; 73,08</t>
+          <t>1,67; 9,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -0,41</t>
+          <t>-2,55; 4,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,49</t>
+          <t>-3,74; 3,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>60,97; 68,27</t>
+          <t>-0,21; 5,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,88</t>
+          <t>-1,81; 4,15</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 4,26</t>
+          <t>0,36; 6,42</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>64,11; 69,63</t>
+          <t>-5,08; 1,39</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; -0,27</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 5,1</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 4,04</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 6,57</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 2,08</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 0,49</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>433,83%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>361,42%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-9,16%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>394,19%</t>
+          <t>-2,31%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-4,32%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 27,16</t>
+          <t>-0,93; 8,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 40,73</t>
+          <t>-2,72; 7,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>330,85; 550,68</t>
+          <t>2,0; 11,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-31,45; -2,56</t>
+          <t>-2,87; 5,84</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 31,66</t>
+          <t>-4,13; 4,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>304,85; 428,29</t>
+          <t>-0,24; 6,62</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 5,59</t>
+          <t>-2,09; 5,1</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 27,18</t>
+          <t>0,45; 7,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>340,37; 453,57</t>
+          <t>-5,76; 1,63</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; -0,34</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 6,26</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,95</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 8,01</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 2,43</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
